--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,99 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>19300</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>15400</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -770,16 +777,19 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,16 +825,17 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,23 +964,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>600</v>
+        <v>48300</v>
       </c>
       <c r="E17" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -964,40 +991,46 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-29000</v>
       </c>
       <c r="E18" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-9900</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-67300</v>
       </c>
       <c r="E20" s="3">
-        <v>-109200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+        <v>-66400</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,52 +1104,58 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>6200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-156300</v>
+        <v>-100200</v>
       </c>
       <c r="E23" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-112300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1122,11 +1165,14 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,23 +1232,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-156300</v>
+        <v>-100200</v>
       </c>
       <c r="E26" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-112300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1209,26 +1261,29 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-156300</v>
+        <v>-100200</v>
       </c>
       <c r="E27" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-112300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1238,11 +1293,14 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,52 +1424,58 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>67300</v>
       </c>
       <c r="E32" s="3">
-        <v>109200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+        <v>66400</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-156300</v>
+        <v>-100200</v>
       </c>
       <c r="E33" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-112300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1412,11 +1485,14 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,23 +1520,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-156300</v>
+        <v>-100200</v>
       </c>
       <c r="E35" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-112300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1470,45 +1549,51 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,25 +1619,26 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>474100</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,83 +1681,92 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>17800</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>27200</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>19200</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
       </c>
       <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1678,25 +1777,28 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>538300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2600</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1707,23 +1809,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>383600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>383700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>383600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1736,8 +1841,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,37 +1873,43 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>14200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,26 +1969,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="D52" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,26 +2033,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>698300</v>
+      </c>
+      <c r="E54" s="3">
         <v>384600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>385300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>386200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,26 +2095,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,26 +2125,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2023,25 +2157,28 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2700</v>
+        <v>133400</v>
       </c>
       <c r="E59" s="3">
         <v>2700</v>
       </c>
       <c r="F59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2052,26 +2189,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,13 +2221,16 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2110,23 +2253,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>326600</v>
+      </c>
+      <c r="E62" s="3">
         <v>290500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>134700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13600</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,26 +2381,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>489600</v>
+      </c>
+      <c r="E66" s="3">
         <v>293200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>137500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,25 +2555,28 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-590600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-269000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-112700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+      <c r="H72" s="3">
+        <v>0</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,25 +2683,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>208800</v>
+      </c>
+      <c r="E76" s="3">
         <v>91400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>247800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>371800</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,57 +2747,63 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-156300</v>
+        <v>-100200</v>
       </c>
       <c r="E81" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-112300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -2618,11 +2813,14 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,22 +3022,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-900</v>
       </c>
       <c r="F89" s="3">
         <v>-900</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -2834,11 +3051,14 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,8 +3070,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,8 +3164,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>386400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1800</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,75 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E8" s="3">
         <v>19300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15400</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -742,26 +746,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E9" s="3">
         <v>19500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15500</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,20 +787,23 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,8 +822,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,20 +839,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4400</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,19 +907,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>5100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -916,14 +936,17 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,26 +991,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E17" s="3">
         <v>48300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>25300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -994,23 +1021,26 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9900</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,14 +1053,17 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,20 +1076,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-67300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-66400</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,19 +1103,22 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>123600</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1107,20 +1144,23 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1133,32 +1173,35 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-82600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-112300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1168,11 +1211,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,8 +1249,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,26 +1284,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-82600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-112300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1264,29 +1316,32 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-82600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-112300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1296,11 +1351,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,20 +1494,23 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="E32" s="3">
         <v>67300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>66400</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1453,32 +1523,35 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-82600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-112300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1488,11 +1561,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,26 +1599,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-82600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-112300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1552,48 +1631,54 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,28 +1706,29 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>405200</v>
+      </c>
+      <c r="E41" s="3">
         <v>474100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1652,31 +1739,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>170800</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1684,17 +1774,20 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17800</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,23 +1803,26 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E44" s="3">
         <v>27200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,34 +1838,37 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1780,28 +1879,31 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>651700</v>
+      </c>
+      <c r="E46" s="3">
         <v>538300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2600</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1812,26 +1914,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>383600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>383700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>383600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1844,31 +1949,34 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>13900</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1876,17 +1984,20 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E49" s="3">
         <v>14200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1902,14 +2013,17 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,29 +2089,32 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E52" s="3">
         <v>145800</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2124,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,29 +2159,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>825000</v>
+      </c>
+      <c r="E54" s="3">
         <v>698300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>384600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>385300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>386200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,8 +2194,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,29 +2226,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E57" s="3">
         <v>27000</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,29 +2259,32 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2160,28 +2294,31 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E59" s="3">
         <v>133400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2700</v>
       </c>
       <c r="F59" s="3">
         <v>2700</v>
       </c>
       <c r="G59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2192,29 +2329,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E60" s="3">
         <v>162100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2224,17 +2364,20 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E61" s="3">
         <v>900</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2256,26 +2399,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E62" s="3">
         <v>326600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>290500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>134700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13600</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,29 +2539,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E66" s="3">
         <v>489600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>293200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>137500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2416,8 +2574,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,28 +2729,31 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-475000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-590600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-269000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-112700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+      <c r="I72" s="3">
+        <v>0</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2590,8 +2764,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,28 +2869,31 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>630900</v>
+      </c>
+      <c r="E76" s="3">
         <v>208800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>91400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>247800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>371800</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2718,8 +2904,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,63 +2939,69 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-82600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-112300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -2816,11 +3011,14 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,31 +3031,32 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>5300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,25 +3239,28 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-900</v>
       </c>
       <c r="G89" s="3">
         <v>-900</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -3054,11 +3271,14 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,31 +3291,32 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3103,8 +3324,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,31 +3394,34 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>-173500</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3199,8 +3429,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>131600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>386400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E102" s="3">
         <v>467700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1800</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E8" s="3">
         <v>39800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -749,29 +752,32 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E9" s="3">
         <v>36700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -790,23 +796,26 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,23 +852,24 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="3">
         <v>6300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -939,14 +958,17 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,29 +1017,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E17" s="3">
         <v>59000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>48300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>25300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1024,26 +1050,29 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-19200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9900</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,14 +1085,17 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,23 +1109,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>137400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-67300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-66400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,23 +1139,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E21" s="3">
         <v>123600</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,23 +1183,26 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,35 +1215,38 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E23" s="3">
         <v>115600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-82600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-112300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1214,11 +1256,14 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,29 +1335,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E26" s="3">
         <v>115600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-82600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-112300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1319,32 +1370,35 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E27" s="3">
         <v>115600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-82600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-112300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1354,11 +1408,14 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,23 +1563,26 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-137400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>67300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>66400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1526,35 +1595,38 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E33" s="3">
         <v>115600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-82600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-112300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1564,11 +1636,14 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,29 +1677,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E35" s="3">
         <v>115600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-82600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-112300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1634,51 +1712,57 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,31 +1792,32 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>747800</v>
+      </c>
+      <c r="E41" s="3">
         <v>405200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>474100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1742,17 +1828,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E42" s="3">
         <v>170800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,8 +1857,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1777,20 +1866,23 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E43" s="3">
         <v>35000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17800</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1806,26 +1898,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E44" s="3">
         <v>24200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>27200</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,37 +1936,40 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E45" s="3">
         <v>16500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1882,31 +1980,34 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1023900</v>
+      </c>
+      <c r="E46" s="3">
         <v>651700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>538300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2600</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1917,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1928,18 +2032,18 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>383600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>383700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>383600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,19 +2056,22 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13900</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>119100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>118200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1978,8 +2085,8 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -1987,20 +2094,23 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E49" s="3">
         <v>14900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2016,14 +2126,17 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,32 +2208,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>144500</v>
+        <v>33200</v>
       </c>
       <c r="E52" s="3">
-        <v>145800</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+        <v>30400</v>
+      </c>
+      <c r="F52" s="3">
+        <v>27600</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,32 +2284,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1191800</v>
+      </c>
+      <c r="E54" s="3">
         <v>825000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>698300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>384600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>385300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>386200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,32 +2356,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>29000</v>
+        <v>28300</v>
       </c>
       <c r="E57" s="3">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>17800</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2262,32 +2392,35 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>88500</v>
       </c>
       <c r="E58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+        <v>89700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>91600</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,31 +2430,34 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>49400</v>
+        <v>44400</v>
       </c>
       <c r="E59" s="3">
-        <v>133400</v>
+        <v>49100</v>
       </c>
       <c r="F59" s="3">
-        <v>2700</v>
+        <v>52700</v>
       </c>
       <c r="G59" s="3">
         <v>2700</v>
       </c>
       <c r="H59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2332,32 +2468,35 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>78400</v>
+        <v>161200</v>
       </c>
       <c r="E60" s="3">
+        <v>153800</v>
+      </c>
+      <c r="F60" s="3">
         <v>162100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2367,16 +2506,19 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>89700</v>
+        <v>318200</v>
       </c>
       <c r="E61" s="3">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2402,29 +2544,32 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25900</v>
+        <v>44600</v>
       </c>
       <c r="E62" s="3">
-        <v>326600</v>
+        <v>38600</v>
       </c>
       <c r="F62" s="3">
+        <v>327500</v>
+      </c>
+      <c r="G62" s="3">
         <v>290500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>134700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,32 +2696,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E66" s="3">
         <v>194000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>489600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>293200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>137500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,31 +2902,34 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-509100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-475000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-590600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-269000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-112700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2767,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,31 +3054,34 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>667800</v>
+      </c>
+      <c r="E76" s="3">
         <v>630900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>208800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>91400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>247800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>371800</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2907,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,69 +3130,75 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E81" s="3">
         <v>115600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-82600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-112300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3014,11 +3208,14 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,17 +3229,18 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3256,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,28 +3455,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-900</v>
       </c>
       <c r="H89" s="3">
         <v>-900</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -3274,11 +3490,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,17 +3511,18 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3318,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,25 +3623,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-173500</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3423,8 +3652,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,66 +3829,72 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>378300</v>
+      </c>
+      <c r="E100" s="3">
         <v>131600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>386400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3657,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-68900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>467700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1800</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E8" s="3">
         <v>52800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>39800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -755,32 +759,35 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>37400</v>
+      </c>
+      <c r="E9" s="3">
         <v>54400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,26 +806,29 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,26 +866,27 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E12" s="3">
         <v>7200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4400</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,25 +946,28 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -961,14 +981,17 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,32 +1044,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E17" s="3">
         <v>83000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>59000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>48300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>25300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1053,29 +1080,32 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-19200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1088,14 +1118,17 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,26 +1143,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>137400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-67300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-66400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,26 +1176,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>123600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,26 +1223,29 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1218,38 +1258,41 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>115600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-82600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-112300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1259,16 +1302,19 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-15200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1282,11 +1328,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,32 +1387,35 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>115600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-82600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-112300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1373,35 +1425,38 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>115600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-82600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-112300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -1411,11 +1466,14 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,26 +1633,29 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-137400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>67300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>66400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1598,38 +1668,41 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>115600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-82600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-112300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -1639,11 +1712,14 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,32 +1756,35 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>115600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-82600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-112300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -1715,54 +1794,60 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,34 +1879,35 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E41" s="3">
         <v>747800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>405200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>474100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
@@ -1831,20 +1918,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>177300</v>
+      </c>
+      <c r="E42" s="3">
         <v>173000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>170800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1860,8 +1950,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1869,23 +1959,26 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E43" s="3">
         <v>61700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1901,29 +1994,32 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E44" s="3">
         <v>22700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>24200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>27200</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1939,40 +2035,43 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E45" s="3">
         <v>18600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1983,34 +2082,37 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>527200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1023900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>651700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>538300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2600</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2035,18 +2140,18 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>383600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>383700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>383600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,23 +2164,26 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E48" s="3">
         <v>119100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>128000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>118200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2088,8 +2196,8 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2097,23 +2205,26 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>713500</v>
+      </c>
+      <c r="E49" s="3">
         <v>15700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,14 +2240,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,35 +2328,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E52" s="3">
         <v>33200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>27600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,35 +2410,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1417800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1191800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>825000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>698300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>384600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>385300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>386200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,35 +2487,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E57" s="3">
         <v>28300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17800</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,35 +2526,38 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E58" s="3">
         <v>88500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>89700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>91600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,34 +2567,37 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E59" s="3">
         <v>44400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>2700</v>
       </c>
       <c r="H59" s="3">
         <v>2700</v>
       </c>
       <c r="I59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2471,35 +2608,38 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E60" s="3">
         <v>161200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>153800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>162100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,20 +2649,23 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>448100</v>
+      </c>
+      <c r="E61" s="3">
         <v>318200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2547,32 +2690,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E62" s="3">
         <v>44600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>327500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>290500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>134700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,35 +2854,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>787800</v>
+      </c>
+      <c r="E66" s="3">
         <v>524000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>194000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>489600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>293200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>137500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,34 +3076,37 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-530500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-509100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-475000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-590600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-269000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-112700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
+      <c r="K72" s="3">
+        <v>0</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,34 +3240,37 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E76" s="3">
         <v>667800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>630900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>91400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>247800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>371800</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,75 +3322,81 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>115600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-82600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-112300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -3211,11 +3406,14 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,20 +3428,21 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E83" s="3">
         <v>8900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3259,8 +3458,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,31 +3672,34 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-900</v>
       </c>
       <c r="I89" s="3">
         <v>-900</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3493,11 +3710,14 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3521,11 +3742,11 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3762,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,28 +3853,31 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-542900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-173500</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3655,8 +3885,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,55 +4075,61 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E100" s="3">
         <v>378300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>131600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>386400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4145,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-573200</v>
+      </c>
+      <c r="E102" s="3">
         <v>342600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-68900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>467700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1800</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,95 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E8" s="3">
         <v>41100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -762,35 +766,38 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E9" s="3">
         <v>37400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>54400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>19500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,29 +816,32 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,29 +880,30 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E12" s="3">
         <v>8900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,28 +966,31 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -984,14 +1004,17 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,35 +1071,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E17" s="3">
         <v>76000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>83000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>48300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>25300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1083,32 +1110,35 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-19200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,14 +1151,17 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1177,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,20 +1187,20 @@
         <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>137400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-67300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-66400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,29 +1213,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>123600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,29 +1263,32 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1261,41 +1301,44 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>115600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-82600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-112300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1305,20 +1348,23 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1328,14 +1374,14 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,35 +1439,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>115600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-82600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-112300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1428,38 +1480,41 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>115600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-82600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-112300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1469,11 +1524,14 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1703,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,20 +1715,20 @@
         <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-137400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>67300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>66400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1671,41 +1741,44 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>115600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-82600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-112300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1715,11 +1788,14 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,35 +1835,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>115600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-82600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-112300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1797,57 +1876,63 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,37 +1966,38 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E41" s="3">
         <v>174500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>747800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>405200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>474100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
@@ -1921,23 +2008,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>183900</v>
+      </c>
+      <c r="E42" s="3">
         <v>177300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>173000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>170800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1953,8 +2043,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,26 +2052,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>95900</v>
+      </c>
+      <c r="E43" s="3">
         <v>74100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1997,32 +2090,35 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E44" s="3">
         <v>73000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>22700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>24200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>27200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2038,43 +2134,46 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E45" s="3">
         <v>28300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>600</v>
       </c>
       <c r="I45" s="3">
         <v>600</v>
       </c>
       <c r="J45" s="3">
+        <v>600</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2085,37 +2184,40 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>541700</v>
+      </c>
+      <c r="E46" s="3">
         <v>527200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1023900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>651700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>538300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2143,18 +2248,18 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>383600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>383700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>383600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,26 +2272,29 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>111600</v>
+      </c>
+      <c r="E48" s="3">
         <v>116100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>119100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>128000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>118200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2199,8 +2307,8 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2208,26 +2316,29 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>711500</v>
+      </c>
+      <c r="E49" s="3">
         <v>713500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,14 +2354,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,38 +2448,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E52" s="3">
         <v>61000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,38 +2536,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1426700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1417800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1191800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>825000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>698300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>384600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>385300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>386200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,38 +2618,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E57" s="3">
         <v>99300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17800</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,38 +2660,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>84600</v>
+        <v>14800</v>
       </c>
       <c r="E58" s="3">
-        <v>88500</v>
+        <v>14200</v>
       </c>
       <c r="F58" s="3">
-        <v>89700</v>
+        <v>15300</v>
       </c>
       <c r="G58" s="3">
-        <v>91600</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+        <v>14300</v>
+      </c>
+      <c r="H58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,37 +2704,40 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E59" s="3">
         <v>74600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2700</v>
       </c>
       <c r="I59" s="3">
         <v>2700</v>
       </c>
       <c r="J59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2611,38 +2748,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>258400</v>
+        <v>225300</v>
       </c>
       <c r="E60" s="3">
-        <v>161200</v>
+        <v>188000</v>
       </c>
       <c r="F60" s="3">
-        <v>153800</v>
+        <v>88000</v>
       </c>
       <c r="G60" s="3">
-        <v>162100</v>
+        <v>78400</v>
       </c>
       <c r="H60" s="3">
+        <v>85800</v>
+      </c>
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,25 +2792,28 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>448600</v>
+      </c>
+      <c r="E61" s="3">
         <v>448100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>318200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2693,35 +2836,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81100</v>
+        <v>149400</v>
       </c>
       <c r="E62" s="3">
-        <v>44600</v>
+        <v>151500</v>
       </c>
       <c r="F62" s="3">
-        <v>38600</v>
+        <v>117800</v>
       </c>
       <c r="G62" s="3">
-        <v>327500</v>
+        <v>114000</v>
       </c>
       <c r="H62" s="3">
+        <v>402000</v>
+      </c>
+      <c r="I62" s="3">
         <v>290500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>134700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>13600</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,38 +3012,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>823500</v>
+      </c>
+      <c r="E66" s="3">
         <v>787800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>524000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>194000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>489600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>293200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>137500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,37 +3250,40 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-562500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-530500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-509100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-475000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-590600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-269000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-112700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
+      <c r="L72" s="3">
+        <v>0</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,37 +3426,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>603200</v>
+      </c>
+      <c r="E76" s="3">
         <v>630000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>667800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>630900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>91400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>247800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>371800</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,81 +3514,87 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>115600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-82600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-112300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3409,11 +3604,14 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,23 +3627,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E83" s="3">
         <v>8700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3461,8 +3660,8 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,34 +3889,37 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-40900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
       </c>
       <c r="J89" s="3">
         <v>-900</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3713,11 +3930,14 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,11 +3966,11 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3765,8 +3986,8 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,31 +4083,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-542900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-173500</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3888,8 +4118,8 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,61 +4321,67 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-4300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>378300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>131600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>386400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4148,8 +4397,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4160,45 +4409,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-573200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>342600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-68900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>467700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,102 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E8" s="3">
         <v>66900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>41100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>52800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,38 +773,41 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E9" s="3">
         <v>59200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>54400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,32 +826,35 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E10" s="3">
         <v>7700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,32 +894,33 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E12" s="3">
         <v>9000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +986,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>5100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,38 +1098,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E17" s="3">
         <v>96800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>76000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>83000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>59000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>48300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>25300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1113,35 +1140,38 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-30200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-19200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1154,14 +1184,17 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,32 +1211,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>137400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-67300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-66400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,32 +1250,35 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-17200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>123600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,32 +1303,35 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,44 +1344,47 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>115600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-82600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-112300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1351,11 +1394,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1363,11 +1409,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-15200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1377,14 +1423,14 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,38 +1491,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>115600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-82600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-112300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1483,41 +1535,44 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>115600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-82600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-112300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1527,11 +1582,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,32 +1773,35 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-137400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>67300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>66400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1744,44 +1814,47 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>115600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-82600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-112300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1791,11 +1864,14 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,38 +1914,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>115600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-82600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-112300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1879,60 +1958,66 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,40 +2053,41 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E41" s="3">
         <v>151000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>174500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>747800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>405200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>474100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2011,26 +2098,29 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E42" s="3">
         <v>183900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>177300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>173000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>170800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,8 +2136,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2055,29 +2145,32 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E43" s="3">
         <v>95900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>74100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2093,35 +2186,38 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E44" s="3">
         <v>63100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>73000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>24200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>27200</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2137,46 +2233,49 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E45" s="3">
         <v>47900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>600</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
       </c>
       <c r="K45" s="3">
+        <v>600</v>
+      </c>
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2187,40 +2286,43 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>537200</v>
+      </c>
+      <c r="E46" s="3">
         <v>541700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>527200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1023900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>651700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>538300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2251,18 +2356,18 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>383600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>383700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>383600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,29 +2380,32 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E48" s="3">
         <v>111600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>116100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>119100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>128000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>118200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2310,8 +2418,8 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,29 +2427,32 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>710200</v>
+      </c>
+      <c r="E49" s="3">
         <v>711500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>713500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2357,14 +2468,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,41 +2568,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E52" s="3">
         <v>61800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>27600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,41 +2662,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1417200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1426700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1417800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1191800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>825000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>698300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>384600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>385300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>386200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,41 +2749,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E57" s="3">
         <v>113200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>99300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>17800</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2663,41 +2794,44 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,40 +2841,43 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>128500</v>
+      </c>
+      <c r="E59" s="3">
         <v>97300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>52700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2700</v>
       </c>
       <c r="J59" s="3">
         <v>2700</v>
       </c>
       <c r="K59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2751,41 +2888,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>240500</v>
+      </c>
+      <c r="E60" s="3">
         <v>225300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>188000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>85800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,28 +2935,31 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E61" s="3">
         <v>448600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>448100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>318200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1700</v>
       </c>
       <c r="H61" s="3">
         <v>1700</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2839,38 +2982,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E62" s="3">
         <v>149400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>151500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>117800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>114000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>402000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>290500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>134700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,41 +3170,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>840400</v>
+      </c>
+      <c r="E66" s="3">
         <v>823500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>787800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>524000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>194000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>489600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>293200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>137500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,40 +3424,43 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-596800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-562500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-530500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-509100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-475000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-590600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-269000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-112700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
+      <c r="M72" s="3">
+        <v>0</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,40 +3612,43 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>576800</v>
+      </c>
+      <c r="E76" s="3">
         <v>603200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>630000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>667800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>630900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>91400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>247800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>371800</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,87 +3706,93 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>115600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-82600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-112300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3607,11 +3802,14 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,26 +3826,27 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E83" s="3">
         <v>12200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3862,8 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,37 +4106,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-900</v>
       </c>
       <c r="K89" s="3">
         <v>-900</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3933,11 +4150,14 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4174,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -3969,11 +4190,11 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3989,8 +4210,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4313,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-542900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-173500</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -4121,8 +4351,8 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,67 +4567,73 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>378300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>131600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>386400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4400,8 +4649,8 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-573200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>342600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-68900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>467700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,108 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E8" s="3">
         <v>99500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>41100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>52800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,41 +779,44 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E9" s="3">
         <v>90400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>54400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,35 +835,38 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E10" s="3">
         <v>9100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,35 +907,36 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E12" s="3">
         <v>10500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,23 +1019,23 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>5100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1030,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,41 +1124,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E17" s="3">
         <v>132100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>96800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>76000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>83000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>59000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>48300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1143,38 +1169,41 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-30200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,14 +1216,17 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,35 +1244,36 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
-      </c>
-      <c r="E20" s="3">
-        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>137400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-67300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-66400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1253,35 +1286,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-20600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>123600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,35 +1342,38 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,47 +1386,50 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>115600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-82600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-112300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1397,11 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,11 +1457,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-15200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1426,14 +1471,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,41 +1542,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>115600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-82600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-112300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1538,44 +1589,47 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-32000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>115600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-82600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-112300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1585,11 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,35 +1842,38 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-137400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>67300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>66400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1817,47 +1886,50 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-32000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>115600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-82600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-112300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1867,11 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,41 +1992,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-32000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>115600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-82600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-112300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -1961,63 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,43 +2139,44 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E41" s="3">
         <v>100100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>151000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>174500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>747800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>405200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>474100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2101,29 +2187,32 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>162100</v>
+      </c>
+      <c r="E42" s="3">
         <v>193400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>183900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>177300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>173000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>170800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2139,8 +2228,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2148,32 +2237,35 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>223200</v>
+      </c>
+      <c r="E43" s="3">
         <v>144300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>95900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>74100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>61700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,38 +2281,41 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E44" s="3">
         <v>29200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>63100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>73000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>22700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>27200</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2236,49 +2331,52 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E45" s="3">
         <v>70200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>600</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
       </c>
       <c r="L45" s="3">
+        <v>600</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2289,43 +2387,46 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>532800</v>
+      </c>
+      <c r="E46" s="3">
         <v>537200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>541700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>527200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1023900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>651700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>538300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
@@ -2336,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2359,18 +2463,18 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>383600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>383700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>383600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,32 +2487,35 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E48" s="3">
         <v>107400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>111600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>116100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>119100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>128000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>118200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2421,8 +2528,8 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2430,32 +2537,35 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>708900</v>
+      </c>
+      <c r="E49" s="3">
         <v>710200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>711500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>713500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,14 +2581,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,44 +2687,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E52" s="3">
         <v>62400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>30400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,44 +2787,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1421900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1417200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1426700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1417800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1191800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>825000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>698300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>384600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>385300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>386200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2712,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,44 +2879,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E57" s="3">
         <v>94900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>113200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>99300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>17800</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,44 +2927,47 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E58" s="3">
         <v>17000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2844,43 +2977,46 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>167400</v>
+      </c>
+      <c r="E59" s="3">
         <v>128500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>97300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2700</v>
       </c>
       <c r="K59" s="3">
         <v>2700</v>
       </c>
       <c r="L59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -2891,44 +3027,47 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E60" s="3">
         <v>240500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>225300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>188000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>85800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2938,31 +3077,34 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>449500</v>
+      </c>
+      <c r="E61" s="3">
         <v>449000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>448600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>448100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>318200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1700</v>
       </c>
       <c r="I61" s="3">
         <v>1700</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2985,41 +3127,44 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>153200</v>
+      </c>
+      <c r="E62" s="3">
         <v>150500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>149400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>151500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>117800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>114000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>402000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>290500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>134700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,44 +3327,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>870300</v>
+      </c>
+      <c r="E66" s="3">
         <v>840400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>823500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>787800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>524000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>194000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>489600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>293200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>137500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,43 +3597,46 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-632100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-596800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-562500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-530500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-509100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-475000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-590600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-269000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-112700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
+      <c r="N72" s="3">
+        <v>0</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
@@ -3474,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,43 +3797,46 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>551600</v>
+      </c>
+      <c r="E76" s="3">
         <v>576800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>603200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>630000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>667800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>630900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>91400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>247800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>371800</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
@@ -3662,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,93 +3897,99 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-32000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>115600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-82600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-112300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -3805,11 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,29 +4024,30 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E83" s="3">
         <v>11200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +4063,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,40 +4322,43 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-900</v>
       </c>
       <c r="L89" s="3">
         <v>-900</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4153,11 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,16 +4394,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -4193,11 +4413,11 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4213,8 +4433,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,37 +4542,40 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-542900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-173500</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4354,8 +4583,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,73 +4812,79 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>378300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>131600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>386400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4652,8 +4900,8 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-50900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-573200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>342600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-68900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>467700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3" t="s">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="92">
   <si>
     <t>STEM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E8" s="3">
         <v>155400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>41100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>52800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -782,44 +786,47 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E9" s="3">
         <v>142900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>90400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>37400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>54400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -838,38 +845,41 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>12500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,38 +921,39 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E12" s="3">
         <v>9900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>10500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,13 +1025,16 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1022,23 +1042,23 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,44 +1151,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E17" s="3">
         <v>189200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>96800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>76000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>83000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>48300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1172,41 +1199,44 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-33800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-34900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-30200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-29000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,14 +1249,17 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,38 +1278,39 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
       </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>137400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-67300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-66400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1289,38 +1323,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-19800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-17200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>123600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,38 +1382,41 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,50 +1429,53 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-37700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>115600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-82600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-112300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1442,16 +1485,19 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1460,11 +1506,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-15200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1474,14 +1520,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,44 +1594,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>115600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-82600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-112300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1592,47 +1644,50 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-32000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>115600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-82600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-112300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1642,11 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,38 +1912,41 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
       </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-137400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>67300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>66400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1889,50 +1959,53 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-32000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>115600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-82600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-112300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -1942,11 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,44 +2071,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-32000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>115600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-82600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-112300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2042,66 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,46 +2226,47 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117900</v>
+      </c>
+      <c r="E41" s="3">
         <v>87900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>151000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>174500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>747800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>405200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>474100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
@@ -2190,32 +2277,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E42" s="3">
         <v>162100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>193400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>183900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>177300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>173000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>170800</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,8 +2321,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2240,35 +2330,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E43" s="3">
         <v>223200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>144300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>95900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>74100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>61700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2284,41 +2377,44 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E44" s="3">
         <v>8400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>29200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>63100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>73000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>22700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>24200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>27200</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,52 +2430,55 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E45" s="3">
         <v>51200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>600</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2390,46 +2489,49 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>511100</v>
+      </c>
+      <c r="E46" s="3">
         <v>532800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>537200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>541700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>527200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1023900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>651700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>538300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2600</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
+      <c r="O46" s="3">
+        <v>0</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
@@ -2440,44 +2542,47 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>383600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>383700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>383600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,35 +2595,38 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E48" s="3">
         <v>103200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>107400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>111600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>116100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>119100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>128000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>118200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2531,8 +2639,8 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2540,35 +2648,38 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>708800</v>
+      </c>
+      <c r="E49" s="3">
         <v>708900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>710200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>711500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>713500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,14 +2695,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,47 +2807,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E52" s="3">
         <v>77000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>62400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>30400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27600</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2913,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1394200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1421900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1417200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1426700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1417800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1191800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>825000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>698300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>384600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>385300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>386200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,47 +3010,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E57" s="3">
         <v>83800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>94900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>113200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>99300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>28300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>17800</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,47 +3061,50 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E58" s="3">
         <v>15700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,46 +3114,49 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>147100</v>
+      </c>
+      <c r="E59" s="3">
         <v>167400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>128500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>97300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2700</v>
       </c>
       <c r="L59" s="3">
         <v>2700</v>
       </c>
       <c r="M59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3030,47 +3167,50 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>275900</v>
+      </c>
+      <c r="E60" s="3">
         <v>267000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>240500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>225300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>188000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>78400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>85800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,34 +3220,37 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>450100</v>
+      </c>
+      <c r="E61" s="3">
         <v>449500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>449000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>448600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>448100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>318200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1700</v>
       </c>
       <c r="J61" s="3">
         <v>1700</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3130,44 +3273,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E62" s="3">
         <v>153200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>149400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>151500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>117800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>114000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>402000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>290500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>134700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3485,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>877400</v>
+      </c>
+      <c r="E66" s="3">
         <v>870300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>840400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>823500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>787800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>524000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>194000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>489600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>293200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>137500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,46 +3771,49 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-676900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-632100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-596800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-562500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-530500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-509100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-475000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-590600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-269000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-112700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
+      <c r="O72" s="3">
+        <v>0</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,46 +3983,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>516800</v>
+      </c>
+      <c r="E76" s="3">
         <v>551600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>576800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>603200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>630000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>667800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>630900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>208800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>91400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>247800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>371800</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
+      <c r="O76" s="3">
+        <v>0</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,99 +4089,105 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-32000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>115600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-82600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-112300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4002,11 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,32 +4223,33 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E83" s="3">
         <v>13400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,43 +4539,46 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-37400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-36000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-40900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-900</v>
       </c>
       <c r="M89" s="3">
         <v>-900</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4372,11 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,31 +4615,32 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1000</v>
+        <v>-5400</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-3200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-6900</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-5800</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-4900</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>-800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,40 +4772,43 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E94" s="3">
         <v>27600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-542900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-173500</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
@@ -4586,8 +4816,8 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>378300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>131600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>386400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4874,20 +5123,20 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4903,8 +5152,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-50900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-573200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>342600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-68900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>467700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E8" s="3">
         <v>67400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>155400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>99500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>66900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>41100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>52800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,47 +793,50 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E9" s="3">
         <v>66400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>142900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>90400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>54400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15500</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,41 +855,44 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,41 +935,42 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E12" s="3">
         <v>13400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>8900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1045,23 +1065,23 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,47 +1178,48 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E17" s="3">
         <v>110100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>189200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>96800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>76000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>83000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>59000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>48300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1202,44 +1229,47 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-42700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-33800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-34900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-30200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-29000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1252,14 +1282,17 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,41 +1312,42 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
       </c>
       <c r="H20" s="3">
         <v>500</v>
       </c>
       <c r="I20" s="3">
+        <v>500</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>137400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-66400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1326,41 +1360,44 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-19800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-17200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>123600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,41 +1422,44 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1432,53 +1472,56 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-32000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-37700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>115600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-82600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-112300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1488,20 +1531,23 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1509,11 +1555,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-15200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1523,14 +1569,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,47 +1646,50 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-44800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>115600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-82600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-112300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1647,50 +1699,53 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-44800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>115600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-82600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-112300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1700,11 +1755,14 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,41 +1982,44 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
       </c>
       <c r="H32" s="3">
         <v>-500</v>
       </c>
       <c r="I32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-137400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>66400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,53 +2032,56 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>115600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-82600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-112300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2018,11 +2091,14 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,47 +2150,50 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>115600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-82600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-112300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2124,69 +2203,75 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,49 +2313,50 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E41" s="3">
         <v>117900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>87900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>151000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>174500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>747800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>405200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>474100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
+      <c r="P41" s="3">
+        <v>0</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
@@ -2280,35 +2367,38 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E42" s="3">
         <v>87700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>162100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>193400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>183900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>177300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>173000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>170800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2414,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2333,38 +2423,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>293900</v>
+      </c>
+      <c r="E43" s="3">
         <v>232800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>223200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>144300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>95900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>61700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2380,44 +2473,47 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>145500</v>
+      </c>
+      <c r="E44" s="3">
         <v>43200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>29200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>63100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>73000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>24200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>27200</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,55 +2529,58 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E45" s="3">
         <v>29600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
       </c>
       <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
@@ -2492,49 +2591,52 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>612800</v>
+      </c>
+      <c r="E46" s="3">
         <v>511100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>532800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>537200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>541700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>527200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1023900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>651700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>538300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2600</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
+      <c r="P46" s="3">
+        <v>0</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2571,21 +2676,21 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>383600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>383700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>383600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,38 +2703,41 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E48" s="3">
         <v>102300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>103200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>107400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>111600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>116100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>119100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>128000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>118200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2642,8 +2750,8 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2651,38 +2759,41 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>706700</v>
+      </c>
+      <c r="E49" s="3">
         <v>708800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>708900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>710200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>711500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>713500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,14 +2809,17 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,50 +2927,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E52" s="3">
         <v>72000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>77000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>30400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1503500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1394200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1421900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1417200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1426700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1417800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1191800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>825000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>698300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>384600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>385300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>386200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,50 +3141,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E57" s="3">
         <v>112500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>94900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>113200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>99300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>28300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>15000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>17800</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E58" s="3">
         <v>16300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,49 +3251,52 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E59" s="3">
         <v>147100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>167400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>128500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>97300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>74600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>49100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2700</v>
       </c>
       <c r="M59" s="3">
         <v>2700</v>
       </c>
       <c r="N59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>0</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3170,50 +3307,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>307500</v>
+      </c>
+      <c r="E60" s="3">
         <v>275900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>267000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>240500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>225300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>188000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>88000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>85800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,37 +3363,40 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>522500</v>
+      </c>
+      <c r="E61" s="3">
         <v>450100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>449500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>449000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>448600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>448100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>318200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1700</v>
       </c>
       <c r="K61" s="3">
         <v>1700</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3276,47 +3419,50 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E62" s="3">
         <v>150900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>153200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>149400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>151500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>117800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>114000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>402000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>290500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>134700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>984600</v>
+      </c>
+      <c r="E66" s="3">
         <v>877400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>870300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>840400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>823500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>787800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>524000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>194000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>489600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>293200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>137500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,49 +3945,52 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-657700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-676900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-632100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-596800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-562500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-530500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-509100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-475000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-590600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-269000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-112700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
+      <c r="P72" s="3">
+        <v>0</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,49 +4169,52 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>518900</v>
+      </c>
+      <c r="E76" s="3">
         <v>516800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>551600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>576800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>603200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>630000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>667800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>630900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>208800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>91400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>247800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>371800</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
+      <c r="P76" s="3">
+        <v>0</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,105 +4281,111 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>115600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-82600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-112300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4200,11 +4395,14 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,35 +4422,36 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
         <v>11100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,46 +4756,49 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-165400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-36000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-32200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-40900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-900</v>
       </c>
       <c r="N89" s="3">
         <v>-900</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4592,11 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,35 +4836,36 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,43 +5002,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E94" s="3">
         <v>67800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>27600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-542900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-173500</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,85 +5304,91 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>378300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>131600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>386400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5155,8 +5404,8 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E102" s="3">
         <v>30000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-50900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-573200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>342600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-68900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>467700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3" t="s">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STEM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>133700</v>
+      </c>
+      <c r="E8" s="3">
         <v>92900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>67400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>155400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>99500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>41100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>52800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,50 +800,53 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>153700</v>
+      </c>
+      <c r="E9" s="3">
         <v>81100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>66400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>142900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>90400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>54400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,44 +865,47 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E10" s="3">
         <v>11800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>7700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,44 +949,45 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E12" s="3">
         <v>14200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>10500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>9000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4400</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,19 +1065,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-59100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1068,23 +1088,23 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>5100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,50 +1205,51 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E17" s="3">
         <v>68700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>110100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>189200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>132100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>96800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>76000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>59000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>48300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1232,47 +1259,50 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="E18" s="3">
         <v>24200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-42700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-30200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-29000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1285,14 +1315,17 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,44 +1346,45 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
       </c>
       <c r="I20" s="3">
         <v>500</v>
       </c>
       <c r="J20" s="3">
+        <v>500</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>137400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-66400</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1363,44 +1397,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="E21" s="3">
         <v>34800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-32000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-19800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>123600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,44 +1462,47 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1475,56 +1515,59 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E23" s="3">
         <v>19600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-32000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-37700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>115600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-82600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-112300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1534,23 +1577,26 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1558,11 +1604,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-15200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1572,14 +1618,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,50 +1698,53 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E26" s="3">
         <v>19100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-44800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-32000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>115600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-82600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-112300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1702,53 +1754,56 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E27" s="3">
         <v>19100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-44800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-32000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>115600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-82600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-112300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1758,11 +1813,14 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,44 +2052,47 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
       </c>
       <c r="I32" s="3">
         <v>-500</v>
       </c>
       <c r="J32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-137400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>66400</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2035,56 +2105,59 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E33" s="3">
         <v>19100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-32000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>115600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-82600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-112300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2094,11 +2167,14 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,50 +2229,53 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E35" s="3">
         <v>19100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-32000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>115600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-82600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-112300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2206,72 +2285,78 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,52 +2400,53 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97100</v>
+      </c>
+      <c r="E41" s="3">
         <v>75400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>87900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>151000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>174500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>747800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>405200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>474100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1800</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
@@ -2370,38 +2457,41 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E42" s="3">
         <v>62800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>87700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>162100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>193400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>183900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>177300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>173000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>170800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2507,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2426,41 +2516,44 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E43" s="3">
         <v>293900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>232800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>223200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>144300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>95900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>61700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,47 +2569,50 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E44" s="3">
         <v>145500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>29200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>63100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>73000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>24200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>27200</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2532,58 +2628,61 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E45" s="3">
         <v>35300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>51200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>19200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
       </c>
       <c r="N45" s="3">
         <v>600</v>
       </c>
       <c r="O45" s="3">
+        <v>600</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
@@ -2594,52 +2693,55 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>510500</v>
+      </c>
+      <c r="E46" s="3">
         <v>612800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>511100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>532800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>537200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>541700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>527200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1023900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>651700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>538300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2600</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2679,21 +2784,21 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>383600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>383700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>383600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,41 +2811,44 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E48" s="3">
         <v>98400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>102300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>103200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>107400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>111600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>116100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>119100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>128000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>118200</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2861,8 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2762,41 +2870,44 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>705500</v>
+      </c>
+      <c r="E49" s="3">
         <v>706700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>708800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>708900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>710200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>711500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>713500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2812,14 +2923,17 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,53 +3047,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E52" s="3">
         <v>85600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>72000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>77000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3165,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1398800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1503500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1394200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1421900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1417200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1426700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1417800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1191800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>825000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>698300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>384600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>385300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>386200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,53 +3272,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E57" s="3">
         <v>103000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>112500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>94900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>113200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>99300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>28300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>15000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>17800</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,53 +3329,56 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E58" s="3">
         <v>18200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3254,52 +3388,55 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E59" s="3">
         <v>186400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>147100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>167400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>128500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>97300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>49100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2700</v>
       </c>
       <c r="N59" s="3">
         <v>2700</v>
       </c>
       <c r="O59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3310,53 +3447,56 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E60" s="3">
         <v>307500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>275900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>267000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>240500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>225300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>188000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>88000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>78400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>85800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,40 +3506,43 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>523100</v>
+      </c>
+      <c r="E61" s="3">
         <v>522500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>450100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>449500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>449000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>448600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>448100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>318200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1700</v>
       </c>
       <c r="L61" s="3">
         <v>1700</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3422,50 +3565,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E62" s="3">
         <v>154100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>153200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>150500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>149400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>151500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>117800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>114000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>402000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>290500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>134700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3801,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>945900</v>
+      </c>
+      <c r="E66" s="3">
         <v>984600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>877400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>870300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>840400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>823500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>787800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>524000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>194000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>489600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>293200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>137500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,52 +4119,55 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-734800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-657700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-676900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-632100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-596800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-562500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-530500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-509100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-475000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-590600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-269000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-112700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
+      <c r="Q72" s="3">
+        <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,52 +4355,55 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>452900</v>
+      </c>
+      <c r="E76" s="3">
         <v>518900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>516800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>551600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>576800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>603200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>630000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>667800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>630900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>208800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>91400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>247800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>371800</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,111 +4473,117 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="E81" s="3">
         <v>19100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-32000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>115600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-82600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-112300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4398,11 +4593,14 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,38 +4621,39 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E83" s="3">
         <v>11300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4470,8 +4669,8 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,49 +4973,52 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-165400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-36000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-32200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-40900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-900</v>
       </c>
       <c r="O89" s="3">
         <v>-900</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4812,11 +5029,14 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,38 +5057,39 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4884,8 +5105,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,46 +5232,49 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E94" s="3">
         <v>20600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>67800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>27600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-542900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-173500</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -5052,8 +5282,8 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,91 +5550,97 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E100" s="3">
         <v>102400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>378300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>131600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>386400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5407,8 +5656,8 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>30000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-50900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-573200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>342600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-68900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>467700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
